--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\TPGO_TP_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B2785B-25E6-47DF-B97C-B2915860CF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15D1331-81A0-42E3-ABE7-EDDC9D92330E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>A</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
   </si>
 </sst>
 </file>
@@ -364,15 +361,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -391,11 +388,8 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -403,114 +397,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>9</v>
-      </c>
-      <c r="H8">
         <v>0</v>
       </c>
     </row>
